--- a/docs/PrognoseCalc/PrognoseCalc-ABSCalc.xlsx
+++ b/docs/PrognoseCalc/PrognoseCalc-ABSCalc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smailthkoelnde-my.sharepoint.com/personal/thomas_schumann_smailthkoelnde_onmicrosoft_com/Documents/Dokumente/01_TH Köln/08_GdW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\thoma\IdeaProjects\GDWWS2021GeraschSalamonSchumann\docs\PrognoseCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="552" documentId="8_{1EC803AC-6612-486A-A5CF-53856FDFB813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{36E1A79B-5B08-4926-98BE-698BB2018A01}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB19689-ECCE-4DE6-BB86-224804856500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27960" yWindow="765" windowWidth="27450" windowHeight="18840" tabRatio="857" activeTab="5" xr2:uid="{6A5BFC6A-5A01-4EA7-8DAE-9EDEA8B95B90}"/>
+    <workbookView xWindow="-29580" yWindow="1215" windowWidth="27450" windowHeight="18840" tabRatio="857" activeTab="5" xr2:uid="{6A5BFC6A-5A01-4EA7-8DAE-9EDEA8B95B90}"/>
   </bookViews>
   <sheets>
     <sheet name="05374-OBK2021" sheetId="1" r:id="rId1"/>
@@ -326,14 +326,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -343,13 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -669,7 +669,7 @@
   <dimension ref="A2:V30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E30" sqref="E30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,24 +686,24 @@
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="18"/>
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
@@ -899,44 +899,44 @@
       </c>
     </row>
     <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
         <v>7</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>14</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>38</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>72</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>18</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>48</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>44</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11">
+      <c r="N9" s="10"/>
+      <c r="O9" s="10">
         <f t="shared" si="0"/>
         <v>241</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <f t="shared" si="1"/>
         <v>88.595775341700303</v>
       </c>
@@ -1191,99 +1191,93 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="I27" s="13" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="I27" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>131.91111111111113</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="I28" s="16">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="I28" s="12">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>48.492809813585417</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="18"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="13" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="I29" s="13" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="I29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="13" t="s">
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16">
+      <c r="B30" s="12">
         <f>O10</f>
         <v>128</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="16">
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12">
         <f>B28-B30</f>
         <v>3.9111111111111256</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="I30" s="16">
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="I30" s="12">
         <f>P10</f>
         <v>47.055017608869875</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="16">
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="12">
         <f>I28-I30</f>
         <v>1.4377922047155423</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="18"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:N29"/>
     <mergeCell ref="G3:M3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B30:D30"/>
@@ -1292,6 +1286,12 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="I27:N27"/>
     <mergeCell ref="I28:N28"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1304,7 +1304,7 @@
   <dimension ref="A2:P30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E30" sqref="E30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,24 +1321,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="18"/>
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1528,44 +1528,44 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
         <v>8</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>48</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>40</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>45</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>21</v>
       </c>
-      <c r="L9" s="11">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
         <v>3</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11">
+      <c r="N9" s="10"/>
+      <c r="O9" s="10">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <f t="shared" si="1"/>
         <v>15.988372093023255</v>
       </c>
@@ -1826,90 +1826,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="I27" s="13" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="I27" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>48.533333333333339</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="I28" s="16">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="I28" s="12">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>4.7028423772609891</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="18"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="13" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="I29" s="13" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="I29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="13" t="s">
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16">
+      <c r="B30" s="12">
         <f>O10</f>
         <v>122</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="16">
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12">
         <f>B28-B30</f>
         <v>-73.466666666666669</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="I30" s="16">
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="I30" s="12">
         <f>P10</f>
         <v>11.821705426356589</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="16">
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="12">
         <f>I28-I30</f>
         <v>-7.1188630490955997</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="18"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1938,7 +1938,7 @@
   <dimension ref="A2:P30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:N21"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,24 +1955,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="18"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2162,44 +2162,44 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
         <v>70</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>96</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>81</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>74</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>77</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>26</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>12</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11">
+      <c r="N9" s="10"/>
+      <c r="O9" s="10">
         <f t="shared" si="0"/>
         <v>436</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <f t="shared" si="1"/>
         <v>77.588078484968207</v>
       </c>
@@ -2460,90 +2460,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="I27" s="13" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="I27" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>310.04444444444454</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="I28" s="16">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="I28" s="12">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>55.173744700421707</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="18"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="13" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="I29" s="13" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="I29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="13" t="s">
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16">
+      <c r="B30" s="12">
         <f>O10</f>
         <v>304</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="16">
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12">
         <f>B28-B30</f>
         <v>6.0444444444445367</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="I30" s="16">
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="I30" s="12">
         <f>P10</f>
         <v>54.098109769335629</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="16">
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="12">
         <f>I28-I30</f>
         <v>1.0756349310860784</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="18"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2588,24 +2588,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="18"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2795,44 +2795,44 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
         <v>9</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>30</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>34</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>10</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>19</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>12</v>
       </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11">
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <f t="shared" si="1"/>
         <v>54.575222848826634</v>
       </c>
@@ -3093,90 +3093,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="I27" s="13" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="I27" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>75.73333333333332</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="I28" s="16">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="I28" s="12">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>36.255820559220467</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="18"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="13" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="I29" s="13" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="I29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="13" t="s">
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16">
+      <c r="B30" s="12">
         <f>O10</f>
         <v>78</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="16">
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12">
         <f>B28-B30</f>
         <v>-2.2666666666666799</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="I30" s="16">
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="I30" s="12">
         <f>P10</f>
         <v>37.340941949197173</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="16">
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="12">
         <f>I28-I30</f>
         <v>-1.085121389976706</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="18"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3221,24 +3221,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="18"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -3428,44 +3428,44 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
         <v>8</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>29</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>17</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>17</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>7</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>17</v>
       </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11">
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <f t="shared" si="1"/>
         <v>34.923645881583106</v>
       </c>
@@ -3726,90 +3726,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="I27" s="13" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="I27" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>32.711111111111109</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="I28" s="16">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="I28" s="12">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>12.025171166711198</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="18"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="13" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="I29" s="13" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="I29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="13" t="s">
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16">
+      <c r="B30" s="12">
         <f>O10</f>
         <v>52</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="16">
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12">
         <f>B28-B30</f>
         <v>-19.288888888888891</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="I30" s="16">
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="I30" s="12">
         <f>P10</f>
         <v>19.116100903603385</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="16">
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="12">
         <f>I28-I30</f>
         <v>-7.0909297368921873</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="18"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3837,7 +3837,7 @@
   <dimension ref="A2:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="E30" sqref="E30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3854,24 +3854,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="18"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -4061,44 +4061,44 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
         <v>64</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>89</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>122</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>70</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>50</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>20</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>25</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11">
+      <c r="N9" s="10"/>
+      <c r="O9" s="10">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <f t="shared" si="1"/>
         <v>42.63565891472868</v>
       </c>
@@ -4359,90 +4359,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="I27" s="13" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="I27" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>443.02222222222224</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="I28" s="16">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="I28" s="12">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>42.928509905254074</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="18"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="13" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="I29" s="13" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="I29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="13" t="s">
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16">
+      <c r="B30" s="12">
         <f>O10</f>
         <v>288</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="16">
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12">
         <f>B28-B30</f>
         <v>155.02222222222224</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="I30" s="16">
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="I30" s="12">
         <f>P10</f>
         <v>27.906976744186046</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="16">
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="12">
         <f>I28-I30</f>
         <v>15.021533161068028</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="18"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4487,24 +4487,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="18"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -4694,44 +4694,44 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
         <v>18</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>19</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>21</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>10</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>26</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>20</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>4</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11">
+      <c r="N9" s="10"/>
+      <c r="O9" s="10">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <f t="shared" si="1"/>
         <v>20.998608397307905</v>
       </c>
@@ -4992,90 +4992,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="I27" s="13" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="I27" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>54.222222222222229</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="I28" s="16">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="I28" s="12">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>9.649078058273318</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="18"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="13" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="I29" s="13" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="I29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="13" t="s">
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16">
+      <c r="B30" s="12">
         <f>O10</f>
         <v>37</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="16">
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12">
         <f>B28-B30</f>
         <v>17.222222222222229</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="I30" s="16">
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="I30" s="12">
         <f>P10</f>
         <v>6.5843094127151911</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="16">
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="12">
         <f>I28-I30</f>
         <v>3.0647686455581269</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="18"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5103,7 +5103,7 @@
   <dimension ref="A2:P30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="E30" sqref="E30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5120,24 +5120,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="18"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -5327,44 +5327,44 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
         <v>2</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>2</v>
       </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
         <v>1</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>1</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>2</v>
       </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11">
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <f t="shared" si="1"/>
         <v>3.8298401999176588</v>
       </c>
@@ -5625,90 +5625,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="I27" s="13" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="I27" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>8.1777777777777789</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="I28" s="16">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="I28" s="12">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>3.9149477599158242</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="18"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="13" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="I29" s="13" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="I29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="13" t="s">
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16">
+      <c r="B30" s="12">
         <f>O10</f>
         <v>8</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="16">
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12">
         <f>B28-B30</f>
         <v>0.17777777777777892</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="I30" s="16">
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="I30" s="12">
         <f>P10</f>
         <v>3.8298401999176588</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="16">
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="12">
         <f>I28-I30</f>
         <v>8.5107559998165438E-2</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="18"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/docs/PrognoseCalc/PrognoseCalc-ABSCalc.xlsx
+++ b/docs/PrognoseCalc/PrognoseCalc-ABSCalc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\thoma\IdeaProjects\GDWWS2021GeraschSalamonSchumann\docs\PrognoseCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB19689-ECCE-4DE6-BB86-224804856500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920DDE7D-144A-4897-8946-616A68DB2908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29580" yWindow="1215" windowWidth="27450" windowHeight="18840" tabRatio="857" activeTab="5" xr2:uid="{6A5BFC6A-5A01-4EA7-8DAE-9EDEA8B95B90}"/>
+    <workbookView xWindow="-33090" yWindow="1590" windowWidth="27450" windowHeight="18840" tabRatio="857" xr2:uid="{6A5BFC6A-5A01-4EA7-8DAE-9EDEA8B95B90}"/>
   </bookViews>
   <sheets>
     <sheet name="05374-OBK2021" sheetId="1" r:id="rId1"/>
@@ -331,6 +331,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,9 +350,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E867732-46F2-41F1-B375-A76F3F3987BC}">
   <dimension ref="A2:V30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:G30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,24 +686,24 @@
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="12"/>
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1191,90 +1191,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="I27" s="15" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="I27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12">
+      <c r="B28" s="13">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>131.91111111111113</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="I28" s="12">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="I28" s="13">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>48.492809813585417</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="15" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="I29" s="15" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="I29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="15" t="s">
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12">
+      <c r="B30" s="13">
         <f>O10</f>
         <v>128</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="12">
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="13">
         <f>B28-B30</f>
         <v>3.9111111111111256</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="I30" s="12">
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="I30" s="13">
         <f>P10</f>
         <v>47.055017608869875</v>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="12">
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="13">
         <f>I28-I30</f>
         <v>1.4377922047155423</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1321,24 +1321,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="12"/>
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1826,90 +1826,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="I27" s="15" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="I27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12">
+      <c r="B28" s="13">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>48.533333333333339</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="I28" s="12">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="I28" s="13">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>4.7028423772609891</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="15" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="I29" s="15" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="I29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="15" t="s">
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12">
+      <c r="B30" s="13">
         <f>O10</f>
         <v>122</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="12">
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="13">
         <f>B28-B30</f>
         <v>-73.466666666666669</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="I30" s="12">
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="I30" s="13">
         <f>P10</f>
         <v>11.821705426356589</v>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="12">
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="13">
         <f>I28-I30</f>
         <v>-7.1188630490955997</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1938,7 +1938,7 @@
   <dimension ref="A2:P30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,24 +1955,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="12"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2460,90 +2460,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="I27" s="15" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="I27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12">
+      <c r="B28" s="13">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>310.04444444444454</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="I28" s="12">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="I28" s="13">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>55.173744700421707</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="15" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="I29" s="15" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="I29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="15" t="s">
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12">
+      <c r="B30" s="13">
         <f>O10</f>
         <v>304</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="12">
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="13">
         <f>B28-B30</f>
         <v>6.0444444444445367</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="I30" s="12">
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="I30" s="13">
         <f>P10</f>
         <v>54.098109769335629</v>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="12">
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="13">
         <f>I28-I30</f>
         <v>1.0756349310860784</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2588,24 +2588,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="12"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -3093,90 +3093,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="I27" s="15" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="I27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12">
+      <c r="B28" s="13">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>75.73333333333332</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="I28" s="12">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="I28" s="13">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>36.255820559220467</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="15" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="I29" s="15" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="I29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="15" t="s">
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12">
+      <c r="B30" s="13">
         <f>O10</f>
         <v>78</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="12">
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="13">
         <f>B28-B30</f>
         <v>-2.2666666666666799</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="I30" s="12">
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="I30" s="13">
         <f>P10</f>
         <v>37.340941949197173</v>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="12">
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="13">
         <f>I28-I30</f>
         <v>-1.085121389976706</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3204,7 +3204,7 @@
   <dimension ref="A2:P30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3221,24 +3221,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="12"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -3726,90 +3726,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="I27" s="15" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="I27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12">
+      <c r="B28" s="13">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>32.711111111111109</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="I28" s="12">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="I28" s="13">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>12.025171166711198</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="15" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="I29" s="15" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="I29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="15" t="s">
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12">
+      <c r="B30" s="13">
         <f>O10</f>
         <v>52</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="12">
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="13">
         <f>B28-B30</f>
         <v>-19.288888888888891</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="I30" s="12">
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="I30" s="13">
         <f>P10</f>
         <v>19.116100903603385</v>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="12">
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="13">
         <f>I28-I30</f>
         <v>-7.0909297368921873</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3836,8 +3836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5599083B-8C9C-4F78-80B8-30E6C05390A7}">
   <dimension ref="A2:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:G30"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3854,24 +3854,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="12"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -4359,90 +4359,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="I27" s="15" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="I27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12">
+      <c r="B28" s="13">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>443.02222222222224</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="I28" s="12">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="I28" s="13">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>42.928509905254074</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="15" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="I29" s="15" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="I29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="15" t="s">
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12">
+      <c r="B30" s="13">
         <f>O10</f>
         <v>288</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="12">
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="13">
         <f>B28-B30</f>
         <v>155.02222222222224</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="I30" s="12">
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="I30" s="13">
         <f>P10</f>
         <v>27.906976744186046</v>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="12">
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="13">
         <f>I28-I30</f>
         <v>15.021533161068028</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4487,24 +4487,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="12"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -4992,90 +4992,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="I27" s="15" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="I27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12">
+      <c r="B28" s="13">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>54.222222222222229</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="I28" s="12">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="I28" s="13">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>9.649078058273318</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="15" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="I29" s="15" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="I29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="15" t="s">
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12">
+      <c r="B30" s="13">
         <f>O10</f>
         <v>37</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="12">
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="13">
         <f>B28-B30</f>
         <v>17.222222222222229</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="I30" s="12">
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="I30" s="13">
         <f>P10</f>
         <v>6.5843094127151911</v>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="12">
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="13">
         <f>I28-I30</f>
         <v>3.0647686455581269</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5120,24 +5120,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="12"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -5625,90 +5625,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="I27" s="15" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="I27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12">
+      <c r="B28" s="13">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>8.1777777777777789</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="I28" s="12">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="I28" s="13">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>3.9149477599158242</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="15" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="I29" s="15" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="I29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="15" t="s">
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12">
+      <c r="B30" s="13">
         <f>O10</f>
         <v>8</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="12">
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="13">
         <f>B28-B30</f>
         <v>0.17777777777777892</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="I30" s="12">
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="I30" s="13">
         <f>P10</f>
         <v>3.8298401999176588</v>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="12">
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="13">
         <f>I28-I30</f>
         <v>8.5107559998165438E-2</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/docs/PrognoseCalc/PrognoseCalc-ABSCalc.xlsx
+++ b/docs/PrognoseCalc/PrognoseCalc-ABSCalc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\thoma\IdeaProjects\GDWWS2021GeraschSalamonSchumann\docs\PrognoseCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1490E4-0548-4A56-A926-F75D2062EBF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFC604F-46BF-495F-B778-F3EE0FAB04B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="75" windowWidth="24300" windowHeight="20940" tabRatio="857" xr2:uid="{6A5BFC6A-5A01-4EA7-8DAE-9EDEA8B95B90}"/>
+    <workbookView xWindow="13680" yWindow="0" windowWidth="24705" windowHeight="20940" tabRatio="857" xr2:uid="{6A5BFC6A-5A01-4EA7-8DAE-9EDEA8B95B90}"/>
   </bookViews>
   <sheets>
     <sheet name="kleinste quadratische Abweichun" sheetId="12" r:id="rId1"/>
@@ -463,6 +463,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,14 +490,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -652,7 +652,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -10771,7 +10770,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10862,21 +10861,21 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="P3" s="6">
         <v>272022</v>
       </c>
@@ -10886,40 +10885,40 @@
         <v>62</v>
       </c>
       <c r="B4">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D4">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="E4">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="F4">
-        <v>474</v>
+        <v>401</v>
       </c>
       <c r="G4">
-        <v>525</v>
+        <v>443</v>
       </c>
       <c r="H4">
-        <v>496</v>
+        <v>445</v>
       </c>
       <c r="I4">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="J4">
-        <v>584</v>
+        <v>490</v>
       </c>
       <c r="K4">
-        <v>647</v>
+        <v>534</v>
       </c>
       <c r="L4">
-        <v>726</v>
+        <v>570</v>
       </c>
       <c r="M4">
-        <v>543</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -10928,69 +10927,69 @@
       </c>
       <c r="B5">
         <f>B4/$P$3*100000</f>
-        <v>37.864584482137474</v>
+        <v>33.085559256236628</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:M5" si="0">C4/$P$3*100000</f>
-        <v>43.74646168324621</v>
+        <v>36.394115181860286</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>91.904331267323968</v>
+        <v>76.096786289344237</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>165.42779628118313</v>
+        <v>140.79743550154032</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>174.25061208284626</v>
+        <v>147.41454735278765</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>192.99909566138032</v>
+        <v>162.85447500569808</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>182.33819323437075</v>
+        <v>163.58970965583666</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>168.36873488173751</v>
+        <v>150.72310327841132</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>214.68851784046879</v>
+        <v>180.13248928395495</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>237.84840931983442</v>
+        <v>196.30765158700402</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>266.89017800030882</v>
+        <v>209.54187528949862</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>199.61620751262765</v>
+        <v>187.85245311041018</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
       <c r="P6" s="6">
         <v>1032000</v>
       </c>
@@ -11090,21 +11089,21 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
       <c r="P9" s="6">
         <v>561942</v>
       </c>
@@ -11204,21 +11203,21 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
       <c r="P12" s="6">
         <v>208886</v>
       </c>
@@ -11328,25 +11327,25 @@
       </c>
       <c r="C18">
         <f>SUM(B4:M4)</f>
-        <v>5375</v>
+        <v>4583</v>
       </c>
       <c r="E18">
         <f>6*(6+1)*C18</f>
-        <v>225750</v>
+        <v>192486</v>
       </c>
       <c r="G18" t="s">
         <v>84</v>
       </c>
       <c r="H18">
         <f>(E19-E18)/(12*((12*12)-1))</f>
-        <v>160.57692307692307</v>
+        <v>137.13636363636363</v>
       </c>
       <c r="J18" t="s">
         <v>86</v>
       </c>
       <c r="K18">
         <f>H19+H18*13</f>
-        <v>1491.6666666666665</v>
+        <v>1273.30303030303</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -11355,18 +11354,18 @@
       </c>
       <c r="C19">
         <f>B4*$B$2+C4*$C$2+D4*$D$2+E4*$E$2+F4*$F$2+G4*$G$2+H4*$H$2+I4*$I$2+J4*$J$2+K4*$K$2+L4*$L$2+M4*$M$2</f>
-        <v>41775</v>
+        <v>35651</v>
       </c>
       <c r="E19">
         <f>12*C19</f>
-        <v>501300</v>
+        <v>427812</v>
       </c>
       <c r="G19" t="s">
         <v>85</v>
       </c>
       <c r="H19" s="6">
         <f>(1/12*C18-H18*((12+1)/2))</f>
-        <v>-595.83333333333337</v>
+        <v>-509.46969696969688</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -11375,25 +11374,25 @@
       </c>
       <c r="C20">
         <f>SUM(B5:M5)</f>
-        <v>1975.9431222474655</v>
+        <v>1684.7902007925832</v>
       </c>
       <c r="E20">
         <f>6*(6+1)*C20</f>
-        <v>82989.611134393548</v>
+        <v>70761.188433288495</v>
       </c>
       <c r="G20" t="s">
         <v>84</v>
       </c>
       <c r="H20">
         <f>(E21-E20)/(12*((12*12)-1))</f>
-        <v>59.030858929396537</v>
+        <v>50.413703169730255</v>
       </c>
       <c r="J20" t="s">
         <v>86</v>
       </c>
       <c r="K20">
         <f>H21+H20*13</f>
-        <v>548.36250989503287</v>
+        <v>468.08825400262856</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -11402,18 +11401,18 @@
       </c>
       <c r="C21">
         <f>B5*$B$2+C5*$C$2+D5*$D$2+E5*$E$2+F5*$F$2+G5*$G$2+H5*$H$2+I5*$I$2+J5*$J$2+K5*$K$2+L5*$L$2+M5*$M$2</f>
-        <v>15357.213754769835</v>
+        <v>13105.925256045466</v>
       </c>
       <c r="E21">
         <f>12*C21</f>
-        <v>184286.56505723801</v>
+        <v>157271.10307254561</v>
       </c>
       <c r="G21" t="s">
         <v>85</v>
       </c>
       <c r="H21" s="6">
         <f>(1/12*C20-H20*((12+1)/2))</f>
-        <v>-219.03865618712206</v>
+        <v>-187.28988720386474</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -11750,24 +11749,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="19"/>
       <c r="G4" s="12" t="s">
         <v>18</v>
       </c>
@@ -12103,90 +12102,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="I27" s="17" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="I27" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="19"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14">
+      <c r="B28" s="20">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>55.644444444444446</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="I28" s="14">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="I28" s="20">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>26.638666279427241</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="16"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="17" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="I29" s="17" t="s">
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="I29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="17" t="s">
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14">
+      <c r="B30" s="20">
         <f>O10</f>
         <v>0</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="14">
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="20">
         <f>B28-B30</f>
         <v>55.644444444444446</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="I30" s="14">
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="I30" s="20">
         <f>P10</f>
         <v>0</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="14">
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="20">
         <f>I28-I30</f>
         <v>26.638666279427241</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="16"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -12904,12 +12903,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="I28:N28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="I29:K29"/>
@@ -12918,6 +12911,12 @@
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="L30:N30"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:N28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12947,24 +12946,24 @@
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="19"/>
       <c r="G4" s="12" t="s">
         <v>18</v>
       </c>
@@ -13302,90 +13301,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="I27" s="17" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="I27" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="19"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14">
+      <c r="B28" s="20">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>29.866666666666671</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="I28" s="14">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="I28" s="20">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>10.979504108736322</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="16"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="17" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="I29" s="17" t="s">
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="I29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="17" t="s">
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14">
+      <c r="B30" s="20">
         <f>O10</f>
         <v>0</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="14">
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="20">
         <f>B28-B30</f>
         <v>29.866666666666671</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="I30" s="14">
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="I30" s="20">
         <f>P10</f>
         <v>0</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="14">
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="20">
         <f>I28-I30</f>
         <v>10.979504108736322</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="16"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -14103,12 +14102,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="I28:N28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="I29:K29"/>
@@ -14117,6 +14110,12 @@
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="L30:N30"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:N28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14146,24 +14145,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="19"/>
       <c r="G4" s="12" t="s">
         <v>18</v>
       </c>
@@ -14501,90 +14500,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="I27" s="17" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="I27" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="19"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14">
+      <c r="B28" s="20">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>102.75555555555559</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="I28" s="14">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="I28" s="20">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>18.285793828465465</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="16"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="17" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="I29" s="17" t="s">
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="I29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="17" t="s">
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14">
+      <c r="B30" s="20">
         <f>O10</f>
         <v>0</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="14">
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="20">
         <f>B28-B30</f>
         <v>102.75555555555559</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="I30" s="14">
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="I30" s="20">
         <f>P10</f>
         <v>0</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="14">
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="20">
         <f>I28-I30</f>
         <v>18.285793828465465</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="16"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -15302,12 +15301,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="I28:N28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="I29:K29"/>
@@ -15316,6 +15309,12 @@
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="L30:N30"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:N28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15345,24 +15344,24 @@
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="19"/>
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
@@ -15428,11 +15427,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="16">
         <f>SUM(G5:M5)</f>
         <v>659</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="14">
         <f>(O5/$G$2)*100000</f>
         <v>242.25981722066598</v>
       </c>
@@ -15468,11 +15467,11 @@
       <c r="M6">
         <v>85</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="16">
         <f t="shared" ref="O6:O10" si="0">SUM(G6:M6)</f>
         <v>623</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="14">
         <f t="shared" ref="P6:P10" si="1">(O6/$G$2)*100000</f>
         <v>229.02559351817129</v>
       </c>
@@ -15508,11 +15507,11 @@
       <c r="M7">
         <v>73</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="16">
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="14">
         <f t="shared" si="1"/>
         <v>136.01841027563947</v>
       </c>
@@ -15548,11 +15547,11 @@
       <c r="M8">
         <v>52</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="16">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="14">
         <f t="shared" si="1"/>
         <v>105.87378961995722</v>
       </c>
@@ -15591,11 +15590,11 @@
         <v>44</v>
       </c>
       <c r="N9" s="10"/>
-      <c r="O9" s="24">
+      <c r="O9" s="17">
         <f t="shared" si="0"/>
         <v>241</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="15">
         <f t="shared" si="1"/>
         <v>88.595775341700303</v>
       </c>
@@ -15625,17 +15624,17 @@
       <c r="K10">
         <v>26</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="13">
         <v>45</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="13">
         <v>45</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="16">
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="14">
         <f t="shared" si="1"/>
         <v>80.14057686510651</v>
       </c>
@@ -15856,90 +15855,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="I27" s="17" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="I27" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="19"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14">
+      <c r="B28" s="20">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>131.91111111111113</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="I28" s="14">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="I28" s="20">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>48.492809813585417</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="16"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="17" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="I29" s="17" t="s">
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="I29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="17" t="s">
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14">
+      <c r="B30" s="20">
         <f>O10</f>
         <v>218</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="14">
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="20">
         <f>B28-B30</f>
         <v>-86.088888888888874</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="I30" s="14">
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="I30" s="20">
         <f>P10</f>
         <v>80.14057686510651</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="14">
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="20">
         <f>I28-I30</f>
         <v>-31.647767051521093</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="16"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -16702,24 +16701,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="19"/>
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
@@ -17207,90 +17206,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="I27" s="17" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="I27" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="19"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14">
+      <c r="B28" s="20">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>48.533333333333339</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="I28" s="14">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="I28" s="20">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>4.7028423772609891</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="16"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="17" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="I29" s="17" t="s">
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="I29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="17" t="s">
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14">
+      <c r="B30" s="20">
         <f>O10</f>
         <v>122</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="14">
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="20">
         <f>B28-B30</f>
         <v>-73.466666666666669</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="I30" s="14">
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="I30" s="20">
         <f>P10</f>
         <v>11.821705426356589</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="14">
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="20">
         <f>I28-I30</f>
         <v>-7.1188630490955997</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="16"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -18052,24 +18051,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="19"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -18557,90 +18556,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="I27" s="17" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="I27" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="19"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14">
+      <c r="B28" s="20">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>310.04444444444454</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="I28" s="14">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="I28" s="20">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>55.173744700421707</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="16"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="17" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="I29" s="17" t="s">
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="I29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="17" t="s">
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14">
+      <c r="B30" s="20">
         <f>O10</f>
         <v>304</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="14">
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="20">
         <f>B28-B30</f>
         <v>6.0444444444445367</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="I30" s="14">
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="I30" s="20">
         <f>P10</f>
         <v>54.098109769335629</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="14">
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="20">
         <f>I28-I30</f>
         <v>1.0756349310860784</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="16"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -19401,24 +19400,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="19"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -19906,90 +19905,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="I27" s="17" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="I27" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="19"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14">
+      <c r="B28" s="20">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>75.73333333333332</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="I28" s="14">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="I28" s="20">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>36.255820559220467</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="16"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="17" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="I29" s="17" t="s">
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="I29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="17" t="s">
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14">
+      <c r="B30" s="20">
         <f>O10</f>
         <v>78</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="14">
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="20">
         <f>B28-B30</f>
         <v>-2.2666666666666799</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="I30" s="14">
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="I30" s="20">
         <f>P10</f>
         <v>37.340941949197173</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="14">
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="20">
         <f>I28-I30</f>
         <v>-1.085121389976706</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="16"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -20750,24 +20749,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="19"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -21255,90 +21254,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="I27" s="17" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="I27" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="19"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14">
+      <c r="B28" s="20">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>32.711111111111109</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="I28" s="14">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="I28" s="20">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>12.025171166711198</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="16"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="17" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="I29" s="17" t="s">
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="I29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="17" t="s">
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14">
+      <c r="B30" s="20">
         <f>O10</f>
         <v>52</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="14">
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="20">
         <f>B28-B30</f>
         <v>-19.288888888888891</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="I30" s="14">
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="I30" s="20">
         <f>P10</f>
         <v>19.116100903603385</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="14">
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="20">
         <f>I28-I30</f>
         <v>-7.0909297368921873</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="16"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -22099,24 +22098,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="19"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -22604,90 +22603,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="I27" s="17" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="I27" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="19"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14">
+      <c r="B28" s="20">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>443.02222222222224</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="I28" s="14">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="I28" s="20">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>42.928509905254074</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="16"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="17" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="I29" s="17" t="s">
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="I29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="17" t="s">
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14">
+      <c r="B30" s="20">
         <f>O10</f>
         <v>288</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="14">
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="20">
         <f>B28-B30</f>
         <v>155.02222222222224</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="I30" s="14">
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="I30" s="20">
         <f>P10</f>
         <v>27.906976744186046</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="14">
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="20">
         <f>I28-I30</f>
         <v>15.021533161068028</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="16"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -23448,24 +23447,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="19"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -23953,90 +23952,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="I27" s="17" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="I27" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="19"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14">
+      <c r="B28" s="20">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>54.222222222222229</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="I28" s="14">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="I28" s="20">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>9.649078058273318</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="16"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="17" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="I29" s="17" t="s">
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="I29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="17" t="s">
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14">
+      <c r="B30" s="20">
         <f>O10</f>
         <v>37</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="14">
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="20">
         <f>B28-B30</f>
         <v>17.222222222222229</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="I30" s="14">
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="I30" s="20">
         <f>P10</f>
         <v>6.5843094127151911</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="14">
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="20">
         <f>I28-I30</f>
         <v>3.0647686455581269</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="16"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -24797,24 +24796,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="19"/>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
@@ -25302,90 +25301,90 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="I27" s="17" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="I27" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="19"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14">
+      <c r="B28" s="20">
         <f>ABS(IF(E24&lt;=0,G21,F21))</f>
         <v>8.1777777777777789</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="I28" s="14">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="I28" s="20">
         <f>ABS(IF(L24&lt;=0,N21,M21))</f>
         <v>3.9149477599158242</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="16"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="17" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="I29" s="17" t="s">
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="I29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="17" t="s">
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14">
+      <c r="B30" s="20">
         <f>O10</f>
         <v>8</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="14">
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="20">
         <f>B28-B30</f>
         <v>0.17777777777777892</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="I30" s="14">
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="I30" s="20">
         <f>P10</f>
         <v>3.8298401999176588</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="14">
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="20">
         <f>I28-I30</f>
         <v>8.5107559998165438E-2</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="16"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">

--- a/docs/PrognoseCalc/PrognoseCalc-ABSCalc.xlsx
+++ b/docs/PrognoseCalc/PrognoseCalc-ABSCalc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\thoma\IdeaProjects\GDWWS2021GeraschSalamonSchumann\docs\PrognoseCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFC604F-46BF-495F-B778-F3EE0FAB04B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38B0D89-F02E-4114-B3EE-59E54C26E140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="0" windowWidth="24705" windowHeight="20940" tabRatio="857" xr2:uid="{6A5BFC6A-5A01-4EA7-8DAE-9EDEA8B95B90}"/>
+    <workbookView xWindow="13560" yWindow="0" windowWidth="24705" windowHeight="20940" tabRatio="857" xr2:uid="{6A5BFC6A-5A01-4EA7-8DAE-9EDEA8B95B90}"/>
   </bookViews>
   <sheets>
     <sheet name="kleinste quadratische Abweichun" sheetId="12" r:id="rId1"/>
@@ -558,6 +558,3226 @@
           </c:marker>
           <c:val>
             <c:numRef>
+              <c:f>'kleinste quadratische Abweichun'!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>511</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0083-4164-A6D9-E4CF588C24B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'kleinste quadratische Abweichun'!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>33.085559256236628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.394115181860286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.096786289344237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140.79743550154032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>147.41454735278765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162.85447500569808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163.58970965583666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.72310327841132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180.13248928395495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>196.30765158700402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>209.54187528949862</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>187.85245311041018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0083-4164-A6D9-E4CF588C24B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1648401280"/>
+        <c:axId val="1644839936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1648401280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1644839936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1644839936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1648401280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'05315-Köln2020'!$O$5:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD66-49BC-B13D-5F23A76C1956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'05315-Köln2020'!$P$5:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7131782945736433</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.255813953488374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.906976744186046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.577519379844965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.63565891472868</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.906976744186046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD66-49BC-B13D-5F23A76C1956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2060662159"/>
+        <c:axId val="2056773967"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2060662159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2056773967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2056773967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060662159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'14612-DD2020'!$O$5:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E31-46F3-B8D5-8923DF80E22D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'14612-DD2020'!$P$5:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.35590861690352382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2284007958116669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.710425631114955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.964049670606574</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.998608397307905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5843094127151911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5E31-46F3-B8D5-8923DF80E22D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2060662159"/>
+        <c:axId val="2056773967"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2060662159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2056773967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2056773967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060662159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'13003-Rostock2020'!$O$5:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8808-4645-AADD-9994599F169E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'13003-Rostock2020'!$P$5:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8723801499382438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6171404498147304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.319360799670635</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8298401999176588</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8298401999176588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8808-4645-AADD-9994599F169E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2060662159"/>
+        <c:axId val="2056773967"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2060662159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2056773967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2056773967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060662159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'13003-Rostock2021-02-16'!$O$5:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43A6-47E6-87BC-4F8AD19694FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'13003-Rostock2021-02-16'!$P$5:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>52.181572723878091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.351732523960436</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.266652623919263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.904751874228047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.106661049567705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-43A6-47E6-87BC-4F8AD19694FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2060662159"/>
+        <c:axId val="2056773967"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2060662159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2056773967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2056773967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060662159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'05374-OBK2021-02-16'!$O$5:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7B4-4F2C-8D02-D2ED6BC77C0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'05374-OBK2021-02-16'!$P$5:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>183.44104520957865</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>144.10599142716396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118.37277867231327</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103.30046834447214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.346280815522277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F7B4-4F2C-8D02-D2ED6BC77C0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2060662159"/>
+        <c:axId val="2056773967"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2060662159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2056773967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2056773967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060662159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'14612-DD2021-02-16'!$O$5:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F95-49E2-8AE8-C30AF977A867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'14612-DD2021-02-16'!$P$5:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>210.87585551533786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149.48161909948001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.91598065280758</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.68897145968802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.62402881436163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F95-49E2-8AE8-C30AF977A867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2060662159"/>
+        <c:axId val="2056773967"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2060662159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2056773967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2056773967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060662159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'kleinste quadratische Abweichun'!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2773</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1653</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1637</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0398-40FC-AACF-3C57F8B2DDF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'kleinste quadratische Abweichun'!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>86.918604651162781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.36821705426357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>245.34883720930233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>268.70155038759685</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>242.44186046511626</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>205.62015503875966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193.50775193798449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160.17441860465115</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>158.62403100775194</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>163.75968992248062</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200.77519379844961</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149.3217054263566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0398-40FC-AACF-3C57F8B2DDF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1747178928"/>
+        <c:axId val="1566987280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1747178928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1566987280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1566987280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747178928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'kleinste quadratische Abweichun'!$B$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1688</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2090</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F431-44EC-A50E-03D699790426}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'kleinste quadratische Abweichun'!$B$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>33.989272914286531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.732865669410714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103.92531613582895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181.51339462079716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>176.17476536724431</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180.4456687700866</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213.18926152521078</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.38687266657411</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>355.19679966971682</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>494.53502318744643</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>511.79659110726732</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>371.92450466418245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F431-44EC-A50E-03D699790426}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1745384304"/>
+        <c:axId val="1643194736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1745384304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1643194736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1643194736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1745384304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'kleinste quadratische Abweichun'!$B$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F590-46CE-AB6D-BF10AEE98174}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'kleinste quadratische Abweichun'!$B$14:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10.532060549773561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.500311174516241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.94729182424863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.074911674310393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.9580823990119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.415231274475069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.255862049156001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.202531524372144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.713010924619169</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.627931024578</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.468561799258921</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.596181649320684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F590-46CE-AB6D-BF10AEE98174}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1839388624"/>
+        <c:axId val="1835900320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1839388624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1835900320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1835900320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1839388624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
               <c:f>'05374-OBK2021'!$O$5:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -816,618 +4036,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'05374-OBK2021-02-16'!$O$5:$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>499</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>224</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F7B4-4F2C-8D02-D2ED6BC77C0F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'05374-OBK2021-02-16'!$P$5:$P$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>183.44104520957865</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>144.10599142716396</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>118.37277867231327</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>103.30046834447214</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>82.346280815522277</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F7B4-4F2C-8D02-D2ED6BC77C0F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2060662159"/>
-        <c:axId val="2056773967"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2060662159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2056773967"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2056773967"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2060662159"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'14612-DD2021-02-16'!$O$5:$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1185</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F95-49E2-8AE8-C30AF977A867}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'14612-DD2021-02-16'!$P$5:$P$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>210.87585551533786</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>149.48161909948001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>116.91598065280758</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89.68897145968802</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46.62402881436163</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3F95-49E2-8AE8-C30AF977A867}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2060662159"/>
-        <c:axId val="2056773967"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2060662159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2056773967"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2056773967"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2060662159"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1734,7 +4343,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2041,7 +4650,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2348,7 +4957,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2655,1234 +5264,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'05315-Köln2020'!$O$5:$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>546</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>491</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>288</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD66-49BC-B13D-5F23A76C1956}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'05315-Köln2020'!$P$5:$P$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.7131782945736433</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.255813953488374</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52.906976744186046</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47.577519379844965</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42.63565891472868</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27.906976744186046</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AD66-49BC-B13D-5F23A76C1956}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2060662159"/>
-        <c:axId val="2056773967"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2060662159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2056773967"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2056773967"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2060662159"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'14612-DD2020'!$O$5:$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5E31-46F3-B8D5-8923DF80E22D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'14612-DD2020'!$P$5:$P$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.35590861690352382</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2284007958116669</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.710425631114955</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.964049670606574</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.998608397307905</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.5843094127151911</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5E31-46F3-B8D5-8923DF80E22D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2060662159"/>
-        <c:axId val="2056773967"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2060662159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2056773967"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2056773967"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2060662159"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'13003-Rostock2020'!$O$5:$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8808-4645-AADD-9994599F169E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'13003-Rostock2020'!$P$5:$P$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8723801499382438</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6171404498147304</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.319360799670635</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8298401999176588</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8298401999176588</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8808-4645-AADD-9994599F169E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2060662159"/>
-        <c:axId val="2056773967"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2060662159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2056773967"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2056773967"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2060662159"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'13003-Rostock2021-02-16'!$O$5:$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-43A6-47E6-87BC-4F8AD19694FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'13003-Rostock2021-02-16'!$P$5:$P$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>52.181572723878091</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.351732523960436</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.266652623919263</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35.904751874228047</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.106661049567705</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-43A6-47E6-87BC-4F8AD19694FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2060662159"/>
-        <c:axId val="2056773967"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2060662159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2056773967"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2056773967"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2060662159"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3964,6 +5345,166 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4324,7 +5865,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4432,11 +5973,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4447,11 +5983,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4483,9 +6014,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5871,7 +7399,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6387,7 +7915,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6903,7 +8431,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7419,7 +8947,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7935,8 +9463,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8044,11 +9572,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8059,11 +9582,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8095,9 +9613,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8451,8 +9966,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8560,11 +10075,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8575,11 +10085,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8611,9 +10116,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8967,8 +10469,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9076,11 +10578,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9091,11 +10588,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9127,9 +10619,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9483,7 +10972,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9999,27 +11488,2091 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>168520</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>25642</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>168520</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>737152</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2">
+        <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE85982-8807-47B5-94D4-165E8212BE92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAD68BF-08C2-46FC-B758-A8F27A4D1018}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10037,10 +13590,161 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4141</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>753717</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB36580F-B7EC-4FC8-951D-EA3F63B89CB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4140</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>11596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E595C7AA-4B0C-4C15-BC4A-C830E8351A20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4140</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C62F70-54BD-4D98-B1F3-596D0E7562D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>25642</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>175847</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E7BF42-A39D-495F-8276-616E54ED0BD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10083,7 +13787,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10131,6 +13835,47 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>25642</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>168520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE85982-8807-47B5-94D4-165E8212BE92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>29307</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>168519</xdr:rowOff>
@@ -10169,7 +13914,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10212,7 +13957,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10255,7 +14000,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10298,7 +14043,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10341,7 +14086,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10384,7 +14129,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10405,49 +14150,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6EE91E-8E33-4D83-BE0E-E2B71D449909}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>175847</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>25642</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>175847</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E7BF42-A39D-495F-8276-616E54ED0BD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10770,7 +14472,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10884,40 +14586,40 @@
       <c r="A4" t="s">
         <v>62</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="16">
         <v>90</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="16">
         <v>99</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="16">
         <v>207</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="16">
         <v>383</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="16">
         <v>401</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="16">
         <v>443</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="16">
         <v>445</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="16">
         <v>410</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="16">
         <v>490</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="16">
         <v>534</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="16">
         <v>570</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="16">
         <v>511</v>
       </c>
     </row>
@@ -10925,51 +14627,51 @@
       <c r="A5" t="s">
         <v>63</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="14">
         <f>B4/$P$3*100000</f>
         <v>33.085559256236628</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="14">
         <f t="shared" ref="C5:M5" si="0">C4/$P$3*100000</f>
         <v>36.394115181860286</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="14">
         <f t="shared" si="0"/>
         <v>76.096786289344237</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="14">
         <f t="shared" si="0"/>
         <v>140.79743550154032</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="14">
         <f t="shared" si="0"/>
         <v>147.41454735278765</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="14">
         <f t="shared" si="0"/>
         <v>162.85447500569808</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="14">
         <f t="shared" si="0"/>
         <v>163.58970965583666</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="14">
         <f t="shared" si="0"/>
         <v>150.72310327841132</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="14">
         <f t="shared" si="0"/>
         <v>180.13248928395495</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="14">
         <f t="shared" si="0"/>
         <v>196.30765158700402</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="14">
         <f t="shared" si="0"/>
         <v>209.54187528949862</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="14">
         <f t="shared" si="0"/>
         <v>187.85245311041018</v>
       </c>
@@ -10998,40 +14700,40 @@
       <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="16">
         <v>897</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="16">
         <v>1397</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="16">
         <v>2532</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="16">
         <v>2773</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="16">
         <v>2502</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="16">
         <v>2122</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="16">
         <v>1997</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="16">
         <v>1653</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="16">
         <v>1637</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="16">
         <v>1690</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="16">
         <v>2072</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="16">
         <v>1541</v>
       </c>
     </row>
@@ -11039,51 +14741,51 @@
       <c r="A8" t="s">
         <v>63</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="14">
         <f>(B7/$P$6)*100000</f>
         <v>86.918604651162781</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="14">
         <f t="shared" ref="C8:M8" si="1">(C7/$P$6)*100000</f>
         <v>135.36821705426357</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="14">
         <f t="shared" si="1"/>
         <v>245.34883720930233</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="14">
         <f t="shared" si="1"/>
         <v>268.70155038759685</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="14">
         <f t="shared" si="1"/>
         <v>242.44186046511626</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="14">
         <f t="shared" si="1"/>
         <v>205.62015503875966</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="14">
         <f t="shared" si="1"/>
         <v>193.50775193798449</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="14">
         <f t="shared" si="1"/>
         <v>160.17441860465115</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="14">
         <f t="shared" si="1"/>
         <v>158.62403100775194</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="14">
         <f t="shared" si="1"/>
         <v>163.75968992248062</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="14">
         <f t="shared" si="1"/>
         <v>200.77519379844961</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="14">
         <f t="shared" si="1"/>
         <v>149.3217054263566</v>
       </c>
@@ -11112,40 +14814,40 @@
       <c r="A10" t="s">
         <v>62</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="16">
         <v>191</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="16">
         <v>375</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="16">
         <v>584</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="16">
         <v>1020</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="16">
         <v>990</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="16">
         <v>1014</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="16">
         <v>1198</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="16">
         <v>1688</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="16">
         <v>1996</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="16">
         <v>2779</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="16">
         <v>2876</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="16">
         <v>2090</v>
       </c>
     </row>
@@ -11153,51 +14855,51 @@
       <c r="A11" t="s">
         <v>63</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="14">
         <f>B10/$P$9*100000</f>
         <v>33.989272914286531</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="14">
         <f t="shared" ref="C11:M11" si="2">C10/$P$9*100000</f>
         <v>66.732865669410714</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="14">
         <f t="shared" si="2"/>
         <v>103.92531613582895</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="14">
         <f t="shared" si="2"/>
         <v>181.51339462079716</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="14">
         <f t="shared" si="2"/>
         <v>176.17476536724431</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="14">
         <f t="shared" si="2"/>
         <v>180.4456687700866</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="14">
         <f t="shared" si="2"/>
         <v>213.18926152521078</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="14">
         <f t="shared" si="2"/>
         <v>300.38687266657411</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="14">
         <f t="shared" si="2"/>
         <v>355.19679966971682</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="14">
         <f t="shared" si="2"/>
         <v>494.53502318744643</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="14">
         <f t="shared" si="2"/>
         <v>511.79659110726732</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="14">
         <f t="shared" si="2"/>
         <v>371.92450466418245</v>
       </c>
@@ -11226,40 +14928,40 @@
       <c r="A13" t="s">
         <v>62</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="16">
         <v>22</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="16">
         <v>47</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="16">
         <v>73</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="16">
         <v>67</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="16">
         <v>96</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="16">
         <v>51</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="16">
         <v>82</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="16">
         <v>61</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="16">
         <v>37</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="16">
         <v>41</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="16">
         <v>72</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="16">
         <v>66</v>
       </c>
     </row>
@@ -11267,51 +14969,51 @@
       <c r="A14" t="s">
         <v>63</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="14">
         <f>B13/$P$12*100000</f>
         <v>10.532060549773561</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="14">
         <f t="shared" ref="C14:M14" si="3">C13/$P$12*100000</f>
         <v>22.500311174516241</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="14">
         <f t="shared" si="3"/>
         <v>34.94729182424863</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="14">
         <f t="shared" si="3"/>
         <v>32.074911674310393</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="14">
         <f t="shared" si="3"/>
         <v>45.9580823990119</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="14">
         <f t="shared" si="3"/>
         <v>24.415231274475069</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="14">
         <f t="shared" si="3"/>
         <v>39.255862049156001</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="14">
         <f t="shared" si="3"/>
         <v>29.202531524372144</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="14">
         <f t="shared" si="3"/>
         <v>17.713010924619169</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="14">
         <f t="shared" si="3"/>
         <v>19.627931024578</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="14">
         <f t="shared" si="3"/>
         <v>34.468561799258921</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="14">
         <f t="shared" si="3"/>
         <v>31.596181649320684</v>
       </c>
@@ -11721,8 +15423,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E19:E20 H19:H20 E24 H24 E29 H29 E34 H34" formula="1"/>
+    <ignoredError sqref="E19 H19:H20 E24 H24 E29 H29 E34 H34" formula="1"/>
   </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11732,7 +15435,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:Q67"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11801,10 +15504,10 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="O5">
+      <c r="O5" s="16">
         <v>109</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="14">
         <f>(O5/$G$2)*100000</f>
         <v>52.181572723878091</v>
       </c>
@@ -11815,10 +15518,10 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="O6">
+      <c r="O6" s="16">
         <v>101</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="14">
         <f t="shared" ref="P6:P10" si="0">(O6/$G$2)*100000</f>
         <v>48.351732523960436</v>
       </c>
@@ -11829,10 +15532,10 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="O7">
+      <c r="O7" s="16">
         <v>105</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="14">
         <f t="shared" si="0"/>
         <v>50.266652623919263</v>
       </c>
@@ -11843,10 +15546,10 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="O8">
+      <c r="O8" s="16">
         <v>75</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="14">
         <f t="shared" si="0"/>
         <v>35.904751874228047</v>
       </c>
@@ -11867,10 +15570,10 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="10">
+      <c r="O9" s="17">
         <v>42</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="15">
         <f t="shared" si="0"/>
         <v>20.106661049567705</v>
       </c>
@@ -11881,14 +15584,8 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="O10">
-        <f t="shared" ref="O10" si="1">SUM(G10:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
@@ -12903,6 +16600,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:N28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="I29:K29"/>
@@ -12911,12 +16614,6 @@
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="L30:N30"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="I28:N28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12927,9 +16624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C9A61-6EBA-4361-BB65-8C9A13BBBB81}">
   <dimension ref="A2:V67"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:Q67"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13004,10 +16701,10 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="O5">
+      <c r="O5" s="16">
         <v>499</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="14">
         <f>(O5/$G$2)*100000</f>
         <v>183.44104520957865</v>
       </c>
@@ -13018,10 +16715,10 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="O6">
+      <c r="O6" s="16">
         <v>392</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="14">
         <f t="shared" ref="P6:P10" si="0">(O6/$G$2)*100000</f>
         <v>144.10599142716396</v>
       </c>
@@ -13032,10 +16729,10 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="O7">
+      <c r="O7" s="16">
         <v>322</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="14">
         <f t="shared" si="0"/>
         <v>118.37277867231327</v>
       </c>
@@ -13046,10 +16743,10 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="O8">
+      <c r="O8" s="16">
         <v>281</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="14">
         <f t="shared" si="0"/>
         <v>103.30046834447214</v>
       </c>
@@ -13070,10 +16767,10 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="10">
+      <c r="O9" s="17">
         <v>224</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="15">
         <f t="shared" si="0"/>
         <v>82.346280815522277</v>
       </c>
@@ -13084,10 +16781,8 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
@@ -14102,6 +17797,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:N28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="I29:K29"/>
@@ -14110,12 +17811,6 @@
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="L30:N30"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="I28:N28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14126,9 +17821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A278974A-E29A-41FA-8EE6-2C44B0D1E318}">
   <dimension ref="A2:Q67"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K71" sqref="K71"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14197,10 +17892,10 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="O5">
+      <c r="O5" s="16">
         <v>1185</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="14">
         <f>(O5/$G$2)*100000</f>
         <v>210.87585551533786</v>
       </c>
@@ -14211,10 +17906,10 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="O6">
+      <c r="O6" s="16">
         <v>840</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="14">
         <f t="shared" ref="P6:P10" si="0">(O6/$G$2)*100000</f>
         <v>149.48161909948001</v>
       </c>
@@ -14225,10 +17920,10 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="O7">
+      <c r="O7" s="16">
         <v>657</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="14">
         <f t="shared" si="0"/>
         <v>116.91598065280758</v>
       </c>
@@ -14239,10 +17934,10 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="O8">
+      <c r="O8" s="16">
         <v>504</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="14">
         <f t="shared" si="0"/>
         <v>89.68897145968802</v>
       </c>
@@ -14263,10 +17958,10 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="10">
+      <c r="O9" s="17">
         <v>262</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="15">
         <f t="shared" si="0"/>
         <v>46.62402881436163</v>
       </c>
@@ -14279,14 +17974,8 @@
         <v>61</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="O10">
-        <f t="shared" ref="O10" si="1">SUM(G10:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
@@ -15301,6 +18990,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:N28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="I29:K29"/>
@@ -15309,12 +19004,6 @@
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="L30:N30"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="I28:N28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15327,7 +19016,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N65" sqref="N65"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16684,7 +20373,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P30" sqref="P30"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16778,11 +20467,11 @@
       <c r="M5">
         <v>25</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="16">
         <f>SUM(G5:M5)</f>
         <v>615</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="14">
         <f>(O5/$G$2)*100000</f>
         <v>59.593023255813954</v>
       </c>
@@ -16818,11 +20507,11 @@
       <c r="M6">
         <v>30</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="16">
         <f t="shared" ref="O6:O10" si="0">SUM(G6:M6)</f>
         <v>438</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="14">
         <f t="shared" ref="P6:P10" si="1">(O6/$G$2)*100000</f>
         <v>42.441860465116278</v>
       </c>
@@ -16858,11 +20547,11 @@
       <c r="M7">
         <v>10</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="16">
         <f t="shared" si="0"/>
         <v>339</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="14">
         <f t="shared" si="1"/>
         <v>32.848837209302324</v>
       </c>
@@ -16898,11 +20587,11 @@
       <c r="M8">
         <v>2</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="16">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="14">
         <f t="shared" si="1"/>
         <v>24.321705426356591</v>
       </c>
@@ -16941,11 +20630,11 @@
         <v>3</v>
       </c>
       <c r="N9" s="10"/>
-      <c r="O9" s="10">
+      <c r="O9" s="17">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="15">
         <f t="shared" si="1"/>
         <v>15.988372093023255</v>
       </c>
@@ -16981,11 +20670,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="16">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="14">
         <f t="shared" si="1"/>
         <v>11.821705426356589</v>
       </c>
@@ -18034,7 +21723,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R30" sqref="R30"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18128,11 +21817,11 @@
       <c r="M5">
         <v>10</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="16">
         <f>SUM(G5:M5)</f>
         <v>1580</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="14">
         <f>(O5/$G$2)*100000</f>
         <v>281.16780735378381</v>
       </c>
@@ -18168,11 +21857,11 @@
       <c r="M6">
         <v>13</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="16">
         <f t="shared" ref="O6:O10" si="0">SUM(G6:M6)</f>
         <v>1094</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="14">
         <f t="shared" ref="P6:P10" si="1">(O6/$G$2)*100000</f>
         <v>194.68201344622756</v>
       </c>
@@ -18208,11 +21897,11 @@
       <c r="M7">
         <v>13</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="16">
         <f t="shared" si="0"/>
         <v>733</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="14">
         <f t="shared" si="1"/>
         <v>130.4405080951415</v>
       </c>
@@ -18248,11 +21937,11 @@
       <c r="M8">
         <v>17</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="16">
         <f t="shared" si="0"/>
         <v>607</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="14">
         <f t="shared" si="1"/>
         <v>108.0182652302195</v>
       </c>
@@ -18291,11 +21980,11 @@
         <v>12</v>
       </c>
       <c r="N9" s="10"/>
-      <c r="O9" s="10">
+      <c r="O9" s="17">
         <f t="shared" si="0"/>
         <v>436</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="15">
         <f t="shared" si="1"/>
         <v>77.588078484968207</v>
       </c>
@@ -18331,11 +22020,11 @@
       <c r="M10">
         <v>17</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="16">
         <f t="shared" si="0"/>
         <v>304</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="14">
         <f t="shared" si="1"/>
         <v>54.098109769335629</v>
       </c>
@@ -19383,7 +23072,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19477,11 +23166,11 @@
       <c r="M5">
         <v>7</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="16">
         <f>SUM(G5:M5)</f>
         <v>260</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="14">
         <f>(O5/$G$2)*100000</f>
         <v>124.4698064973239</v>
       </c>
@@ -19517,11 +23206,11 @@
       <c r="M6">
         <v>3</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="16">
         <f t="shared" ref="O6:O10" si="0">SUM(G6:M6)</f>
         <v>156</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="14">
         <f t="shared" ref="P6:P10" si="1">(O6/$G$2)*100000</f>
         <v>74.681883898394346</v>
       </c>
@@ -19557,11 +23246,11 @@
       <c r="M7">
         <v>4</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="16">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="14">
         <f t="shared" si="1"/>
         <v>57.447602998764872</v>
       </c>
@@ -19597,11 +23286,11 @@
       <c r="M8">
         <v>5</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="16">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="14">
         <f t="shared" si="1"/>
         <v>48.830462548950138</v>
       </c>
@@ -19640,11 +23329,11 @@
         <v>0</v>
       </c>
       <c r="N9" s="10"/>
-      <c r="O9" s="10">
+      <c r="O9" s="17">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="15">
         <f t="shared" si="1"/>
         <v>54.575222848826634</v>
       </c>
@@ -19680,11 +23369,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="16">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="14">
         <f t="shared" si="1"/>
         <v>37.340941949197173</v>
       </c>
@@ -20732,7 +24421,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20826,11 +24515,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="16">
         <f>SUM(G5:M5)</f>
         <v>4</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="14">
         <f>(O5/$G$2)*100000</f>
         <v>1.4704693002771836</v>
       </c>
@@ -20866,11 +24555,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="16">
         <f t="shared" ref="O6:O10" si="0">SUM(G6:M6)</f>
         <v>9</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="14">
         <f t="shared" ref="P6:P10" si="1">(O6/$G$2)*100000</f>
         <v>3.3085559256236632</v>
       </c>
@@ -20906,11 +24595,11 @@
       <c r="M7">
         <v>24</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="16">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="14">
         <f t="shared" si="1"/>
         <v>30.879855305820854</v>
       </c>
@@ -20946,11 +24635,11 @@
       <c r="M8">
         <v>34</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="16">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="14">
         <f t="shared" si="1"/>
         <v>46.319782958731281</v>
       </c>
@@ -20989,11 +24678,11 @@
         <v>0</v>
       </c>
       <c r="N9" s="10"/>
-      <c r="O9" s="10">
+      <c r="O9" s="17">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="15">
         <f t="shared" si="1"/>
         <v>34.923645881583106</v>
       </c>
@@ -21029,11 +24718,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="16">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="14">
         <f t="shared" si="1"/>
         <v>19.116100903603385</v>
       </c>
@@ -22081,7 +25770,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22175,11 +25864,11 @@
       <c r="M5">
         <v>2</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="16">
         <f>SUM(G5:M5)</f>
         <v>28</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="14">
         <f>(O5/$G$2)*100000</f>
         <v>2.7131782945736433</v>
       </c>
@@ -22215,11 +25904,11 @@
       <c r="M6">
         <v>35</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="16">
         <f t="shared" ref="O6:O10" si="0">SUM(G6:M6)</f>
         <v>240</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="14">
         <f t="shared" ref="P6:P10" si="1">(O6/$G$2)*100000</f>
         <v>23.255813953488374</v>
       </c>
@@ -22255,11 +25944,11 @@
       <c r="M7">
         <v>47</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="16">
         <f t="shared" si="0"/>
         <v>546</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="14">
         <f t="shared" si="1"/>
         <v>52.906976744186046</v>
       </c>
@@ -22295,11 +25984,11 @@
       <c r="M8">
         <v>56</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="16">
         <f t="shared" si="0"/>
         <v>491</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="14">
         <f t="shared" si="1"/>
         <v>47.577519379844965</v>
       </c>
@@ -22338,11 +26027,11 @@
         <v>25</v>
       </c>
       <c r="N9" s="10"/>
-      <c r="O9" s="10">
+      <c r="O9" s="17">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="15">
         <f t="shared" si="1"/>
         <v>42.63565891472868</v>
       </c>
@@ -22378,11 +26067,11 @@
       <c r="M10">
         <v>30</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="16">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="14">
         <f t="shared" si="1"/>
         <v>27.906976744186046</v>
       </c>
@@ -23430,7 +27119,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23524,11 +27213,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="16">
         <f>SUM(G5:M5)</f>
         <v>2</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="14">
         <f>(O5/$G$2)*100000</f>
         <v>0.35590861690352382</v>
       </c>
@@ -23564,11 +27253,11 @@
       <c r="M6">
         <v>4</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="16">
         <f t="shared" ref="O6:O10" si="0">SUM(G6:M6)</f>
         <v>35</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="14">
         <f t="shared" ref="P6:P10" si="1">(O6/$G$2)*100000</f>
         <v>6.2284007958116669</v>
       </c>
@@ -23604,11 +27293,11 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="16">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="14">
         <f t="shared" si="1"/>
         <v>21.710425631114955</v>
       </c>
@@ -23644,11 +27333,11 @@
       <c r="M8">
         <v>9</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="16">
         <f t="shared" si="0"/>
         <v>174</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="14">
         <f t="shared" si="1"/>
         <v>30.964049670606574</v>
       </c>
@@ -23687,11 +27376,11 @@
         <v>4</v>
       </c>
       <c r="N9" s="10"/>
-      <c r="O9" s="10">
+      <c r="O9" s="17">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="15">
         <f t="shared" si="1"/>
         <v>20.998608397307905</v>
       </c>
@@ -23727,11 +27416,11 @@
       <c r="M10">
         <v>4</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="16">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="14">
         <f t="shared" si="1"/>
         <v>6.5843094127151911</v>
       </c>
@@ -24779,7 +28468,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24873,11 +28562,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="16">
         <f>SUM(G5:M5)</f>
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="14">
         <f>(O5/$G$2)*100000</f>
         <v>0</v>
       </c>
@@ -24913,11 +28602,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="16">
         <f t="shared" ref="O6:O10" si="0">SUM(G6:M6)</f>
         <v>6</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="14">
         <f t="shared" ref="P6:P10" si="1">(O6/$G$2)*100000</f>
         <v>2.8723801499382438</v>
       </c>
@@ -24953,11 +28642,11 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="14">
         <f t="shared" si="1"/>
         <v>8.6171404498147304</v>
       </c>
@@ -24993,11 +28682,11 @@
       <c r="M8">
         <v>3</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="16">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="14">
         <f t="shared" si="1"/>
         <v>15.319360799670635</v>
       </c>
@@ -25036,11 +28725,11 @@
         <v>0</v>
       </c>
       <c r="N9" s="10"/>
-      <c r="O9" s="10">
+      <c r="O9" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="15">
         <f t="shared" si="1"/>
         <v>3.8298401999176588</v>
       </c>
@@ -25076,11 +28765,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="14">
         <f t="shared" si="1"/>
         <v>3.8298401999176588</v>
       </c>
